--- a/Record.xlsx
+++ b/Record.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -46,8 +46,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,7 +134,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -167,7 +168,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -344,12 +344,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A3:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.2361111111111116E-2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:B3"/>
+  <dimension ref="A3:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -352,12 +352,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>43986</v>
       </c>
       <c r="B3" s="2">
         <v>9.2361111111111116E-2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.13402777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -344,14 +344,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B1" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="C1" s="2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.15972222222222224</v>
+      </c>
+    </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>43986</v>
@@ -361,6 +383,17 @@
       </c>
       <c r="C3" s="2">
         <v>0.13402777777777777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14583333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,8 +16,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +56,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -134,6 +139,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -168,6 +174,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -343,27 +350,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>43983</v>
       </c>
       <c r="B1" s="2">
-        <v>8.3333333333333329E-2</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="C1" s="2">
-        <v>0.125</v>
+        <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43984</v>
       </c>
@@ -374,7 +381,7 @@
         <v>0.15972222222222224</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43986</v>
       </c>
@@ -385,7 +392,7 @@
         <v>0.13402777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43987</v>
       </c>
@@ -394,6 +401,11 @@
       </c>
       <c r="C4" s="2">
         <v>0.14583333333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43988</v>
       </c>
     </row>
   </sheetData>
@@ -402,24 +414,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,6 +406,23 @@
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43988</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.7222222222222224E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.9444444444444434E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.1111111111111111</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,6 +423,17 @@
       </c>
       <c r="C6" s="2">
         <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.16666666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -434,6 +434,17 @@
       </c>
       <c r="C7" s="2">
         <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.14583333333333334</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.17708333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/Record.xlsx
+++ b/Record.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,8 +16,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +139,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -174,7 +173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,16 +348,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1">
         <v>43983</v>
       </c>
@@ -370,7 +368,7 @@
         <v>0.13333333333333333</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>43984</v>
       </c>
@@ -381,7 +379,7 @@
         <v>0.15972222222222224</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>43986</v>
       </c>
@@ -392,7 +390,7 @@
         <v>0.13402777777777777</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>43987</v>
       </c>
@@ -403,7 +401,7 @@
         <v>0.14583333333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>43988</v>
       </c>
@@ -414,7 +412,7 @@
         <v>0.1388888888888889</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>43990</v>
       </c>
@@ -425,7 +423,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>43991</v>
       </c>
@@ -436,7 +434,7 @@
         <v>0.16666666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>43993</v>
       </c>
@@ -445,6 +443,17 @@
       </c>
       <c r="C8" s="2">
         <v>0.17708333333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B9" s="2">
+        <v>4.5138888888888888E-2</v>
+      </c>
+      <c r="C9" s="2">
+        <v>9.0277777777777776E-2</v>
       </c>
     </row>
   </sheetData>
@@ -453,24 +462,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
